--- a/01 計画/2023進捗管理表.xlsx
+++ b/01 計画/2023進捗管理表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\59244\OneDrive\桌面\user\01 計画\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\memo\01 計画\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE22378D-F93A-4BBD-84A2-5B16F7231660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA576E75-035F-47FB-852D-06205618652C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>wbs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +233,10 @@
   </si>
   <si>
     <t>楽天基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                         </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1721,10 +1725,10 @@
   <dimension ref="A1:AL21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="12" ySplit="10" topLeftCell="AA11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="10" topLeftCell="M11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2005,7 +2009,7 @@
       </c>
       <c r="E3" s="6">
         <f ca="1">IF(D3-DATEDIF(C3,TODAY(),"d") &lt;= 0,0,D3-DATEDIF(C3,TODAY(),"d"))</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="6">
         <f>SUM(G3:AL3)</f>
@@ -2060,7 +2064,7 @@
       </c>
       <c r="E4" s="6">
         <f ca="1">IF(D4-DATEDIF(C4,TODAY(),"d") &lt;= 0,0,D4-DATEDIF(C4,TODAY(),"d"))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="6">
         <f>SUM(G4:AL4)</f>
@@ -2117,7 +2121,7 @@
       </c>
       <c r="E5" s="6">
         <f ca="1">IF(D5-DATEDIF(C5,TODAY(),"d") &lt;= 0,0,D5-DATEDIF(C5,TODAY(),"d"))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" ref="F5" si="1">SUM(G5:AL5)</f>
@@ -2239,7 +2243,9 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>

--- a/01 計画/2023進捗管理表.xlsx
+++ b/01 計画/2023進捗管理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\memo\01 計画\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA576E75-035F-47FB-852D-06205618652C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96675930-CE24-44EC-8D50-DB71C414C371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>wbs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,10 +229,6 @@
   </si>
   <si>
     <t>中级上课文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楽天基金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1722,13 +1718,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EBDEE7-81DD-4A84-9B6E-C78AD7B539F0}">
-  <dimension ref="A1:AL21"/>
+  <dimension ref="A1:AL20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="12" ySplit="10" topLeftCell="M11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="9" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1998,7 +1994,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C3" s="7">
         <f>I1</f>
@@ -2009,20 +2005,26 @@
       </c>
       <c r="E3" s="6">
         <f ca="1">IF(D3-DATEDIF(C3,TODAY(),"d") &lt;= 0,0,D3-DATEDIF(C3,TODAY(),"d"))</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F3" s="6">
         <f>SUM(G3:AL3)</f>
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="K3" s="6">
+        <v>1</v>
+      </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="M3" s="6">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0.8</v>
+      </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -2053,7 +2055,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7">
         <f>I1</f>
@@ -2064,7 +2066,7 @@
       </c>
       <c r="E4" s="6">
         <f ca="1">IF(D4-DATEDIF(C4,TODAY(),"d") &lt;= 0,0,D4-DATEDIF(C4,TODAY(),"d"))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="6">
         <f>SUM(G4:AL4)</f>
@@ -2110,7 +2112,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C5" s="7">
         <f>H1</f>
@@ -2121,11 +2123,11 @@
       </c>
       <c r="E5" s="6">
         <f ca="1">IF(D5-DATEDIF(C5,TODAY(),"d") &lt;= 0,0,D5-DATEDIF(C5,TODAY(),"d"))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" ref="F5" si="1">SUM(G5:AL5)</f>
-        <v>0.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6">
@@ -2133,11 +2135,19 @@
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="K5" s="6">
+        <v>0.5</v>
+      </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
+      <c r="M5" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0.5</v>
+      </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -2176,9 +2186,9 @@
       <c r="D6" s="6">
         <v>15</v>
       </c>
-      <c r="E6" s="6" t="e">
+      <c r="E6" s="6">
         <f ca="1">IF(D6-DATEDIF(C6,TODAY(),"d") &lt;= 0,0,D6-DATEDIF(C6,TODAY(),"d"))</f>
-        <v>#NUM!</v>
+        <v>12</v>
       </c>
       <c r="F6" s="6">
         <f>SUM(G6:AL6)</f>
@@ -2244,7 +2254,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -2279,7 +2289,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C8" s="7">
         <f>I1</f>
@@ -2288,7 +2298,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="6">
-        <f t="shared" ref="F8:F9" si="2">SUM(G8:AL8)</f>
+        <f t="shared" ref="F8" si="2">SUM(G8:AL8)</f>
         <v>0</v>
       </c>
       <c r="G8" s="6"/>
@@ -2326,14 +2336,14 @@
     </row>
     <row r="9" spans="1:38" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F9" si="3">SUM(G9:AL9)</f>
         <v>0</v>
       </c>
       <c r="G9" s="6"/>
@@ -2369,51 +2379,7 @@
       <c r="AK9" s="6"/>
       <c r="AL9" s="6"/>
     </row>
-    <row r="10" spans="1:38" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6">
-        <f t="shared" ref="F10" si="3">SUM(G10:AL10)</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="6"/>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
-    </row>
+    <row r="10" spans="1:38" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:38" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:38" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:38" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2424,7 +2390,6 @@
     <row r="18" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="F1:F2"/>
